--- a/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
+++ b/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="MonsterNormalData" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="EnemyData" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TestData" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -2980,8 +2980,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.01"/>
   </cols>
   <sheetData>

--- a/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
+++ b/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\Purusha\Purusha\Assets\RawData\KCH\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8FEA5E-BF8E-4100-A1FE-0C10AA87855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17710B5-44E2-4806-B557-144909962AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,7 +1145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1288,7 +1288,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3369,7 +3369,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>69</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>70</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>71</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>72</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>73</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>500</v>
+        <v>106</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>74</v>

--- a/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
+++ b/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="EnemyData" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="PlayerData" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TestData" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="StageData" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="93">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1069,10 +1070,64 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_criticalChance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_criticalDamage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_breakGauge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_prefabPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_spritePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaehoMon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaekyungMon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Health</t>
+    <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquipLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Atk</t>
@@ -1093,30 +1148,6 @@
     <t xml:space="preserve">Speed</t>
   </si>
   <si>
-    <t xml:space="preserve">BreakGauge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrefabPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpritePath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaehoMon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaekyungMon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquipLevel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breesha</t>
   </si>
   <si>
@@ -1154,6 +1185,54 @@
   </si>
   <si>
     <t xml:space="preserve">하루살이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyID_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyCount_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyID_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyCount_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyID_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyCount_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyID_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyCount_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyID_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_enemyCount_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_compensation_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_compensationCount_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_compensation_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_compensationCount_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_compensation_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_compensationCount_3</t>
   </si>
 </sst>
 </file>
@@ -3023,8 +3102,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3032,50 +3111,53 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,7 +3165,7 @@
         <v>101001</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>1</v>
@@ -3120,7 +3202,7 @@
         <v>201001</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>5</v>
@@ -3157,7 +3239,7 @@
         <v>301001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>99</v>
@@ -3224,34 +3306,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3341,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>3000</v>
@@ -3297,7 +3379,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3" s="16" t="n">
         <v>2500</v>
@@ -3335,7 +3417,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>2500</v>
@@ -3373,7 +3455,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2000</v>
@@ -3411,7 +3493,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2000</v>
@@ -3449,7 +3531,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>4000</v>
@@ -3528,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -3542,10 +3624,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -3556,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -3570,10 +3652,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -3584,10 +3666,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -3598,10 +3680,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -3616,4 +3698,176 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>110101</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>101001</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>110102</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>101001</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>110103</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>101001</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
+++ b/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" state="visible" r:id="rId2"/>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">Drone</t>
   </si>
   <si>
-    <t xml:space="preserve">TaehoMon</t>
+    <t xml:space="preserve">CodeNumber001</t>
   </si>
   <si>
     <t xml:space="preserve">JaekyungMon</t>
@@ -3102,8 +3102,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3208,28 +3208,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>50</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J3" s="13" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K3" s="13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -3707,7 +3707,7 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
+++ b/Purusha/Assets/RawData/KCH/Excel/DataList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1112,7 +1112,13 @@
     <t xml:space="preserve">Drone</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Monster/Drone</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeNumber001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Monster/CodeNumber001</t>
   </si>
   <si>
     <t xml:space="preserve">JaekyungMon</t>
@@ -3103,7 +3109,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3116,7 +3122,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3194,15 +3201,17 @@
       <c r="K2" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>201001</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>5</v>
@@ -3231,15 +3240,17 @@
       <c r="K3" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>301001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>99</v>
@@ -3306,34 +3317,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3352,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>3000</v>
@@ -3379,7 +3390,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="16" t="n">
         <v>2500</v>
@@ -3417,7 +3428,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>2500</v>
@@ -3455,7 +3466,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2000</v>
@@ -3493,7 +3504,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2000</v>
@@ -3531,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>4000</v>
@@ -3610,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -3624,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -3638,10 +3649,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -3652,10 +3663,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -3666,10 +3677,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -3680,10 +3691,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -3738,52 +3749,52 @@
         <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
